--- a/data/pca/factorExposure/factorExposure_2015-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +720,97 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01971305129787625</v>
+        <v>0.01068288335947007</v>
       </c>
       <c r="C2">
-        <v>0.01919879531395381</v>
+        <v>-0.05195664197102921</v>
       </c>
       <c r="D2">
-        <v>0.1034933821016049</v>
+        <v>0.126768161958583</v>
       </c>
       <c r="E2">
-        <v>-0.01113082641061592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02255508464190081</v>
+      </c>
+      <c r="F2">
+        <v>-0.02999922043265664</v>
+      </c>
+      <c r="G2">
+        <v>-0.1149220091485367</v>
+      </c>
+      <c r="H2">
+        <v>-0.07853940694900979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.000909829257105956</v>
+        <v>0.0001723970119072395</v>
       </c>
       <c r="C3">
-        <v>0.0009156128893183105</v>
+        <v>-0.0006620377081064593</v>
       </c>
       <c r="D3">
-        <v>-0.009083999326574903</v>
+        <v>-0.003582823477971473</v>
       </c>
       <c r="E3">
-        <v>0.002617637695716365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.006340803260759523</v>
+      </c>
+      <c r="F3">
+        <v>0.003526130093911976</v>
+      </c>
+      <c r="G3">
+        <v>-0.007320912494334126</v>
+      </c>
+      <c r="H3">
+        <v>0.01034158231562318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04477781608369922</v>
+        <v>0.01961983930045077</v>
       </c>
       <c r="C4">
-        <v>0.07157521246151471</v>
+        <v>-0.1043498552751231</v>
       </c>
       <c r="D4">
-        <v>0.1269484816781277</v>
+        <v>0.1298996381540982</v>
       </c>
       <c r="E4">
-        <v>-0.08526736024147692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009259845331014071</v>
+      </c>
+      <c r="F4">
+        <v>-0.08936323332262391</v>
+      </c>
+      <c r="G4">
+        <v>-0.00527749373346889</v>
+      </c>
+      <c r="H4">
+        <v>-0.0416651317644103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02150708719433047</v>
+        <v>0.02733205571540471</v>
       </c>
       <c r="C6">
-        <v>0.01260527829565704</v>
+        <v>-0.03425321281267747</v>
       </c>
       <c r="D6">
-        <v>0.1354036611446881</v>
+        <v>0.119712317302649</v>
       </c>
       <c r="E6">
-        <v>-0.03804046201100152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.05850779360151262</v>
+      </c>
+      <c r="F6">
+        <v>-0.04704172352703494</v>
+      </c>
+      <c r="G6">
+        <v>-0.001780602181244583</v>
+      </c>
+      <c r="H6">
+        <v>-0.04609317448417239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002448774400451748</v>
+        <v>0.008950915437133731</v>
       </c>
       <c r="C7">
-        <v>0.0239587394100277</v>
+        <v>-0.03706555498933555</v>
       </c>
       <c r="D7">
-        <v>0.1096709101983682</v>
+        <v>0.09669761541681063</v>
       </c>
       <c r="E7">
-        <v>-0.004306591992211472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05292131490488627</v>
+      </c>
+      <c r="F7">
+        <v>-0.01131495961410829</v>
+      </c>
+      <c r="G7">
+        <v>0.008900838370939456</v>
+      </c>
+      <c r="H7">
+        <v>-0.07967917644820059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.004940953678235743</v>
+        <v>-0.00791421030173845</v>
       </c>
       <c r="C8">
-        <v>0.02577202494609608</v>
+        <v>-0.03437648583062322</v>
       </c>
       <c r="D8">
-        <v>0.07833613126133751</v>
+        <v>0.07435351779050572</v>
       </c>
       <c r="E8">
-        <v>-0.02300345331623809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03903166313105164</v>
+      </c>
+      <c r="F8">
+        <v>-0.04809509313775668</v>
+      </c>
+      <c r="G8">
+        <v>-0.06177679415476852</v>
+      </c>
+      <c r="H8">
+        <v>-0.01103993218786595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03618242098193838</v>
+        <v>0.01381050241260246</v>
       </c>
       <c r="C9">
-        <v>0.06117329573482904</v>
+        <v>-0.08667728007883337</v>
       </c>
       <c r="D9">
-        <v>0.1310432029010938</v>
+        <v>0.1144714280736685</v>
       </c>
       <c r="E9">
-        <v>-0.06865434540983854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01172826250817232</v>
+      </c>
+      <c r="F9">
+        <v>-0.06024663582200693</v>
+      </c>
+      <c r="G9">
+        <v>0.01429153319986662</v>
+      </c>
+      <c r="H9">
+        <v>-0.0564464239408732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1714722197276282</v>
+        <v>0.2401145991228331</v>
       </c>
       <c r="C10">
-        <v>-0.170056665948983</v>
+        <v>0.09530677333828991</v>
       </c>
       <c r="D10">
-        <v>0.003493759889457295</v>
+        <v>-0.002859212630950092</v>
       </c>
       <c r="E10">
-        <v>-0.04305764952760202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01082235676206908</v>
+      </c>
+      <c r="F10">
+        <v>-0.04431219261968614</v>
+      </c>
+      <c r="G10">
+        <v>-0.0001034161208595064</v>
+      </c>
+      <c r="H10">
+        <v>0.04326232484413714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0187510693676752</v>
+        <v>0.01054043424439045</v>
       </c>
       <c r="C11">
-        <v>0.04103534489751605</v>
+        <v>-0.0549820904705937</v>
       </c>
       <c r="D11">
-        <v>0.04661595004578345</v>
+        <v>0.04367113821780225</v>
       </c>
       <c r="E11">
-        <v>0.01504879584654816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01967149317340249</v>
+      </c>
+      <c r="F11">
+        <v>0.01164246514567133</v>
+      </c>
+      <c r="G11">
+        <v>0.006257544630413314</v>
+      </c>
+      <c r="H11">
+        <v>-0.04412130177130185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01962106217030961</v>
+        <v>0.01076639266316626</v>
       </c>
       <c r="C12">
-        <v>0.04007070797586521</v>
+        <v>-0.04916420709625408</v>
       </c>
       <c r="D12">
-        <v>0.06001978485184013</v>
+        <v>0.04760054943911701</v>
       </c>
       <c r="E12">
-        <v>0.003774043395396145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0152362703118396</v>
+      </c>
+      <c r="F12">
+        <v>0.01461386930479199</v>
+      </c>
+      <c r="G12">
+        <v>0.02590452656473241</v>
+      </c>
+      <c r="H12">
+        <v>-0.06444094762759457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.001716010761159145</v>
+        <v>-0.00276250926052464</v>
       </c>
       <c r="C13">
-        <v>0.02229319984354355</v>
+        <v>-0.0463817030002786</v>
       </c>
       <c r="D13">
-        <v>0.1440943576462728</v>
+        <v>0.1519853683868429</v>
       </c>
       <c r="E13">
-        <v>-0.0378729517784317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03978221664814863</v>
+      </c>
+      <c r="F13">
+        <v>-0.03627799719207968</v>
+      </c>
+      <c r="G13">
+        <v>-0.01302270271681007</v>
+      </c>
+      <c r="H13">
+        <v>-0.07462692533836994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005416455309699354</v>
+        <v>0.001607526075421589</v>
       </c>
       <c r="C14">
-        <v>0.01631691648525343</v>
+        <v>-0.03035297490262958</v>
       </c>
       <c r="D14">
-        <v>0.09565156028056822</v>
+        <v>0.102409004929807</v>
       </c>
       <c r="E14">
-        <v>-0.01255238929130605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04978329592182266</v>
+      </c>
+      <c r="F14">
+        <v>-0.03815589254297594</v>
+      </c>
+      <c r="G14">
+        <v>-0.01197110736649506</v>
+      </c>
+      <c r="H14">
+        <v>-0.1287024662468082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002790241684810947</v>
+        <v>-0.001378845648822558</v>
       </c>
       <c r="C15">
-        <v>0.01063271705830634</v>
+        <v>-0.02498992938860723</v>
       </c>
       <c r="D15">
-        <v>0.03096952926177267</v>
+        <v>0.05919378078358386</v>
       </c>
       <c r="E15">
-        <v>0.003471168462063379</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.0103309674819519</v>
+      </c>
+      <c r="F15">
+        <v>-0.00699664524350585</v>
+      </c>
+      <c r="G15">
+        <v>-0.01802562240541085</v>
+      </c>
+      <c r="H15">
+        <v>-0.03347509445971195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01852784283702683</v>
+        <v>0.01060309184537208</v>
       </c>
       <c r="C16">
-        <v>0.03649901460446185</v>
+        <v>-0.04833852102444777</v>
       </c>
       <c r="D16">
-        <v>0.05209621045658618</v>
+        <v>0.04341204183888649</v>
       </c>
       <c r="E16">
-        <v>0.006392613471256288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0211501437430979</v>
+      </c>
+      <c r="F16">
+        <v>0.007438812776771494</v>
+      </c>
+      <c r="G16">
+        <v>0.01699493315311336</v>
+      </c>
+      <c r="H16">
+        <v>-0.04512315883728758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004328644318919237</v>
+        <v>0.0005117447479865619</v>
       </c>
       <c r="C19">
-        <v>0.01782984514831573</v>
+        <v>-0.01728295369622993</v>
       </c>
       <c r="D19">
-        <v>0.1038072759883618</v>
+        <v>0.06439713902157169</v>
       </c>
       <c r="E19">
-        <v>-0.04512553179197397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0102956520092047</v>
+      </c>
+      <c r="F19">
+        <v>-0.01551389004211023</v>
+      </c>
+      <c r="G19">
+        <v>-0.01059237749962656</v>
+      </c>
+      <c r="H19">
+        <v>-0.05940462202016484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001789378743934853</v>
+        <v>0.005356225893004039</v>
       </c>
       <c r="C20">
-        <v>0.02416440729109794</v>
+        <v>-0.03998424720566657</v>
       </c>
       <c r="D20">
-        <v>0.08478359314721261</v>
+        <v>0.09254433110673026</v>
       </c>
       <c r="E20">
-        <v>-0.03394943472543991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02342373405263093</v>
+      </c>
+      <c r="F20">
+        <v>-0.02966529182726414</v>
+      </c>
+      <c r="G20">
+        <v>0.00604654059771824</v>
+      </c>
+      <c r="H20">
+        <v>-0.05399987704471071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005538221264519498</v>
+        <v>0.005539643080877996</v>
       </c>
       <c r="C21">
-        <v>0.02839807966968218</v>
+        <v>-0.04482676270616529</v>
       </c>
       <c r="D21">
-        <v>0.1628446402456972</v>
+        <v>0.1320363341788265</v>
       </c>
       <c r="E21">
-        <v>-0.0782956323807675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03056163450031191</v>
+      </c>
+      <c r="F21">
+        <v>-0.09931713799346388</v>
+      </c>
+      <c r="G21">
+        <v>-0.01765329174904759</v>
+      </c>
+      <c r="H21">
+        <v>-0.1951885053709034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.002597913370528981</v>
+        <v>-0.01328114491930654</v>
       </c>
       <c r="C22">
-        <v>0.06333161535151824</v>
+        <v>-0.08743100287524125</v>
       </c>
       <c r="D22">
-        <v>0.2486659133412922</v>
+        <v>0.2552677149987009</v>
       </c>
       <c r="E22">
-        <v>0.01880197600533456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06038182486650137</v>
+      </c>
+      <c r="F22">
+        <v>-0.003635957415611974</v>
+      </c>
+      <c r="G22">
+        <v>-0.3908883157374579</v>
+      </c>
+      <c r="H22">
+        <v>0.4033366719952623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.002331376138454321</v>
+        <v>-0.01003444356397213</v>
       </c>
       <c r="C23">
-        <v>0.06383875761147326</v>
+        <v>-0.08899686866096522</v>
       </c>
       <c r="D23">
-        <v>0.2481649664142406</v>
+        <v>0.2579308856539799</v>
       </c>
       <c r="E23">
-        <v>0.01868160528046647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05563774216806422</v>
+      </c>
+      <c r="F23">
+        <v>-0.006946921953385608</v>
+      </c>
+      <c r="G23">
+        <v>-0.3787943598575886</v>
+      </c>
+      <c r="H23">
+        <v>0.3879399603701147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02364162926837252</v>
+        <v>0.01001319783322275</v>
       </c>
       <c r="C24">
-        <v>0.05561846798324917</v>
+        <v>-0.06540097389330538</v>
       </c>
       <c r="D24">
-        <v>0.06431853756996489</v>
+        <v>0.04987156050934837</v>
       </c>
       <c r="E24">
-        <v>0.001564191301983494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02894219774289618</v>
+      </c>
+      <c r="F24">
+        <v>0.002774833690185883</v>
+      </c>
+      <c r="G24">
+        <v>0.008296703860251494</v>
+      </c>
+      <c r="H24">
+        <v>-0.0704318951803381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02524237148888352</v>
+        <v>0.01453582921933207</v>
       </c>
       <c r="C25">
-        <v>0.04754966618985246</v>
+        <v>-0.06008457702638996</v>
       </c>
       <c r="D25">
-        <v>0.06093275846327183</v>
+        <v>0.05013157277675005</v>
       </c>
       <c r="E25">
-        <v>-0.002877217925922629</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01417609846820654</v>
+      </c>
+      <c r="F25">
+        <v>0.005174601297259981</v>
+      </c>
+      <c r="G25">
+        <v>0.01273800667887015</v>
+      </c>
+      <c r="H25">
+        <v>-0.03741417430193044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006747640610080482</v>
+        <v>0.01477983936958139</v>
       </c>
       <c r="C26">
-        <v>0.01559819568681684</v>
+        <v>-0.02646908387456461</v>
       </c>
       <c r="D26">
-        <v>0.08048871666091255</v>
+        <v>0.06707398618650338</v>
       </c>
       <c r="E26">
-        <v>-0.0207405884894527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04134427229414162</v>
+      </c>
+      <c r="F26">
+        <v>-0.04431017761655836</v>
+      </c>
+      <c r="G26">
+        <v>0.0004985080550816146</v>
+      </c>
+      <c r="H26">
+        <v>-0.09677518362330051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2562018436418694</v>
+        <v>0.3193445625119065</v>
       </c>
       <c r="C28">
-        <v>-0.1991448251093841</v>
+        <v>0.09331687250516654</v>
       </c>
       <c r="D28">
-        <v>0.01928434948613492</v>
+        <v>-0.01360876808004357</v>
       </c>
       <c r="E28">
-        <v>-0.05933231889759724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04990092778118024</v>
+      </c>
+      <c r="F28">
+        <v>-0.04572068080047018</v>
+      </c>
+      <c r="G28">
+        <v>-0.03954027696341505</v>
+      </c>
+      <c r="H28">
+        <v>0.007438117368545615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001614500540350685</v>
+        <v>0.0007200832721135098</v>
       </c>
       <c r="C29">
-        <v>0.02054051897250151</v>
+        <v>-0.0357643748023191</v>
       </c>
       <c r="D29">
-        <v>0.09499179425023543</v>
+        <v>0.1043138972029861</v>
       </c>
       <c r="E29">
-        <v>-0.01758509759898088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05656861556747603</v>
+      </c>
+      <c r="F29">
+        <v>-0.04098437091406749</v>
+      </c>
+      <c r="G29">
+        <v>0.002989176933488674</v>
+      </c>
+      <c r="H29">
+        <v>-0.1318271306797682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02201948970588893</v>
+        <v>0.01325990905338852</v>
       </c>
       <c r="C30">
-        <v>0.05865004065016634</v>
+        <v>-0.08665849473154762</v>
       </c>
       <c r="D30">
-        <v>0.1642594342822155</v>
+        <v>0.1495474833267148</v>
       </c>
       <c r="E30">
-        <v>-0.0287416863647411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05333650023017507</v>
+      </c>
+      <c r="F30">
+        <v>-0.03153093734514159</v>
+      </c>
+      <c r="G30">
+        <v>-0.02984941899374537</v>
+      </c>
+      <c r="H30">
+        <v>-0.04619393525174555</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03744917905909724</v>
+        <v>0.01037549786645243</v>
       </c>
       <c r="C31">
-        <v>0.08479485423585501</v>
+        <v>-0.09266829908857861</v>
       </c>
       <c r="D31">
-        <v>0.06860887221323808</v>
+        <v>0.04048193075822246</v>
       </c>
       <c r="E31">
-        <v>-0.01337769460946466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01909903816256862</v>
+      </c>
+      <c r="F31">
+        <v>-0.01539826224311508</v>
+      </c>
+      <c r="G31">
+        <v>0.0005994027363414904</v>
+      </c>
+      <c r="H31">
+        <v>-0.04673521829415219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01757354382133523</v>
+        <v>0.01042253921729609</v>
       </c>
       <c r="C32">
-        <v>0.03190634018388776</v>
+        <v>-0.0480767976875154</v>
       </c>
       <c r="D32">
-        <v>0.09978272016601426</v>
+        <v>0.109575542343341</v>
       </c>
       <c r="E32">
-        <v>-0.06767341959137883</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002975052339479637</v>
+      </c>
+      <c r="F32">
+        <v>-0.0518483404025232</v>
+      </c>
+      <c r="G32">
+        <v>-0.006344323999848555</v>
+      </c>
+      <c r="H32">
+        <v>-0.05417653428418979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008600693548363585</v>
+        <v>0.007042599514097081</v>
       </c>
       <c r="C33">
-        <v>0.04039110962338315</v>
+        <v>-0.05831874979296334</v>
       </c>
       <c r="D33">
-        <v>0.1368327424379336</v>
+        <v>0.121867941651387</v>
       </c>
       <c r="E33">
-        <v>-0.04280944219564925</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02698923082934609</v>
+      </c>
+      <c r="F33">
+        <v>-0.02931192561275758</v>
+      </c>
+      <c r="G33">
+        <v>8.415601392257069e-06</v>
+      </c>
+      <c r="H33">
+        <v>-0.0632464083237208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02139384025783225</v>
+        <v>0.007818237659502019</v>
       </c>
       <c r="C34">
-        <v>0.05845146603772198</v>
+        <v>-0.06172596138904932</v>
       </c>
       <c r="D34">
-        <v>0.04859692184610303</v>
+        <v>0.02881828626235487</v>
       </c>
       <c r="E34">
-        <v>0.04439252870371914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02890335037327493</v>
+      </c>
+      <c r="F34">
+        <v>0.03687129309409387</v>
+      </c>
+      <c r="G34">
+        <v>0.0112043625245468</v>
+      </c>
+      <c r="H34">
+        <v>-0.05764697214214087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002420451277227705</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01031073660645367</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03353518434766993</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.00342671294670449</v>
+      </c>
+      <c r="F35">
+        <v>-0.0187848230462876</v>
+      </c>
+      <c r="G35">
+        <v>0.0005666172539780807</v>
+      </c>
+      <c r="H35">
+        <v>-0.04657104388275829</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006212999255420129</v>
+        <v>0.01198889705953973</v>
       </c>
       <c r="C36">
-        <v>0.006090806205056336</v>
+        <v>-0.02049568792767316</v>
       </c>
       <c r="D36">
-        <v>0.08530536496953608</v>
+        <v>0.07539522768739537</v>
       </c>
       <c r="E36">
-        <v>-0.04538080958584353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02695258453137613</v>
+      </c>
+      <c r="F36">
+        <v>-0.04988314001851191</v>
+      </c>
+      <c r="G36">
+        <v>-0.002612334143403652</v>
+      </c>
+      <c r="H36">
+        <v>-0.06496046755490693</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00483519153554142</v>
+        <v>0.01400370779546076</v>
       </c>
       <c r="C38">
-        <v>0.006157750022348853</v>
+        <v>-0.01880608919109474</v>
       </c>
       <c r="D38">
-        <v>0.08733182051382674</v>
+        <v>0.08416783989386292</v>
       </c>
       <c r="E38">
-        <v>-0.01320337807588753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002631517422197284</v>
+      </c>
+      <c r="F38">
+        <v>-0.001580604400527276</v>
+      </c>
+      <c r="G38">
+        <v>-0.02367442585894618</v>
+      </c>
+      <c r="H38">
+        <v>-0.06348919902388019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01567473287521636</v>
+        <v>0.002880411425573068</v>
       </c>
       <c r="C39">
-        <v>0.05638827425802655</v>
+        <v>-0.07557388368840594</v>
       </c>
       <c r="D39">
-        <v>0.1128885680974932</v>
+        <v>0.09624154846558459</v>
       </c>
       <c r="E39">
-        <v>0.01124882955892369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05344433318522703</v>
+      </c>
+      <c r="F39">
+        <v>0.00228111440686454</v>
+      </c>
+      <c r="G39">
+        <v>0.009423377122123863</v>
+      </c>
+      <c r="H39">
+        <v>-0.09617494671535834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01093621498590052</v>
+        <v>0.01247440063564871</v>
       </c>
       <c r="C40">
-        <v>0.01753568146792492</v>
+        <v>-0.03137819137041951</v>
       </c>
       <c r="D40">
-        <v>0.1235502815218131</v>
+        <v>0.1032238608005081</v>
       </c>
       <c r="E40">
-        <v>0.01572738292240175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05028567208136919</v>
+      </c>
+      <c r="F40">
+        <v>0.02132723582915858</v>
+      </c>
+      <c r="G40">
+        <v>-0.04445478520810229</v>
+      </c>
+      <c r="H40">
+        <v>-0.0896688642219074</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009712717660412994</v>
+        <v>0.01635413495380907</v>
       </c>
       <c r="C41">
-        <v>0.003432542101211637</v>
+        <v>-0.01703653721171833</v>
       </c>
       <c r="D41">
-        <v>0.04550903192558934</v>
+        <v>0.04664232195000038</v>
       </c>
       <c r="E41">
-        <v>-0.03308624954209657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008443573482540502</v>
+      </c>
+      <c r="F41">
+        <v>-0.02464335023804558</v>
+      </c>
+      <c r="G41">
+        <v>-0.005197225531568869</v>
+      </c>
+      <c r="H41">
+        <v>-0.04513662696336136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002911775313549414</v>
+        <v>0.009683360975798486</v>
       </c>
       <c r="C43">
-        <v>0.004332704696891788</v>
+        <v>-0.01443532661201478</v>
       </c>
       <c r="D43">
-        <v>0.05552591361041946</v>
+        <v>0.05163914166091376</v>
       </c>
       <c r="E43">
-        <v>-0.02208919516561482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.008549232740366468</v>
+      </c>
+      <c r="F43">
+        <v>-0.02020076982180662</v>
+      </c>
+      <c r="G43">
+        <v>-0.007951226954762582</v>
+      </c>
+      <c r="H43">
+        <v>-0.05624822148463801</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01592786204136033</v>
+        <v>0.01193605568444206</v>
       </c>
       <c r="C44">
-        <v>0.02240341589581096</v>
+        <v>-0.04637107460095962</v>
       </c>
       <c r="D44">
-        <v>0.1077745630536575</v>
+        <v>0.1110377850486475</v>
       </c>
       <c r="E44">
-        <v>-0.05050132076012092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03911074208888825</v>
+      </c>
+      <c r="F44">
+        <v>-0.03743896928379942</v>
+      </c>
+      <c r="G44">
+        <v>-0.02652383149126315</v>
+      </c>
+      <c r="H44">
+        <v>-0.05305328238087684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005642560303004502</v>
+        <v>0.0005857781779367234</v>
       </c>
       <c r="C46">
-        <v>0.02880957766476821</v>
+        <v>-0.04058940378271738</v>
       </c>
       <c r="D46">
-        <v>0.08919439646759435</v>
+        <v>0.07525925060762605</v>
       </c>
       <c r="E46">
-        <v>-0.01881728272604048</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04272425314941661</v>
+      </c>
+      <c r="F46">
+        <v>-0.03533340511420052</v>
+      </c>
+      <c r="G46">
+        <v>-0.01152333976206569</v>
+      </c>
+      <c r="H46">
+        <v>-0.1333325079481755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.080320450378509</v>
+        <v>0.03506501045746133</v>
       </c>
       <c r="C47">
-        <v>0.1072452631139151</v>
+        <v>-0.1261512583702309</v>
       </c>
       <c r="D47">
-        <v>0.05708035069567976</v>
+        <v>0.02389650529039124</v>
       </c>
       <c r="E47">
-        <v>-0.03175810842456565</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007506330242937802</v>
+      </c>
+      <c r="F47">
+        <v>0.00299071424100882</v>
+      </c>
+      <c r="G47">
+        <v>0.04271438943761575</v>
+      </c>
+      <c r="H47">
+        <v>-0.05219751488057997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007354781777215354</v>
+        <v>0.01364888186421801</v>
       </c>
       <c r="C48">
-        <v>0.01528359264508565</v>
+        <v>-0.03047648795224451</v>
       </c>
       <c r="D48">
-        <v>0.08811927104278404</v>
+        <v>0.08064940367473597</v>
       </c>
       <c r="E48">
-        <v>-0.05854146366332069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01938117026913045</v>
+      </c>
+      <c r="F48">
+        <v>-0.06017328829753892</v>
+      </c>
+      <c r="G48">
+        <v>-0.007789021619612952</v>
+      </c>
+      <c r="H48">
+        <v>-0.1039764366991316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0353806705262751</v>
+        <v>0.01515644816460742</v>
       </c>
       <c r="C50">
-        <v>0.05977376011431041</v>
+        <v>-0.0751974579731088</v>
       </c>
       <c r="D50">
-        <v>0.06075887266161233</v>
+        <v>0.04694210133890879</v>
       </c>
       <c r="E50">
-        <v>-0.009798431775255316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01076132127506403</v>
+      </c>
+      <c r="F50">
+        <v>-0.01036893756235971</v>
+      </c>
+      <c r="G50">
+        <v>-0.01396648185151563</v>
+      </c>
+      <c r="H50">
+        <v>-0.03713702135533564</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002261483226855348</v>
+        <v>-0.0005895748354416178</v>
       </c>
       <c r="C51">
-        <v>0.004007538655137024</v>
+        <v>-0.01680053770129616</v>
       </c>
       <c r="D51">
-        <v>0.0558579727004154</v>
+        <v>0.05818510362500353</v>
       </c>
       <c r="E51">
-        <v>-0.002127320157816066</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03863094096887937</v>
+      </c>
+      <c r="F51">
+        <v>-0.03976880346552952</v>
+      </c>
+      <c r="G51">
+        <v>-0.01910163152653241</v>
+      </c>
+      <c r="H51">
+        <v>-0.04924060726424215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1081312402910294</v>
+        <v>0.05551602487879044</v>
       </c>
       <c r="C53">
-        <v>0.1247212923492125</v>
+        <v>-0.1564573617121721</v>
       </c>
       <c r="D53">
-        <v>0.0112467717315786</v>
+        <v>-0.01981689842757666</v>
       </c>
       <c r="E53">
-        <v>-0.06081394105045493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02852228614258772</v>
+      </c>
+      <c r="F53">
+        <v>-0.04997275289106963</v>
+      </c>
+      <c r="G53">
+        <v>-0.001718063532558768</v>
+      </c>
+      <c r="H53">
+        <v>-0.007193813994056938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01150606788868914</v>
+        <v>0.01053982819469662</v>
       </c>
       <c r="C54">
-        <v>0.02075094326006849</v>
+        <v>-0.03680584775321729</v>
       </c>
       <c r="D54">
-        <v>0.09065671896369087</v>
+        <v>0.07660256302409064</v>
       </c>
       <c r="E54">
-        <v>-0.006402126851873785</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01474648359333486</v>
+      </c>
+      <c r="F54">
+        <v>-0.003991986298094412</v>
+      </c>
+      <c r="G54">
+        <v>-0.0238859493662194</v>
+      </c>
+      <c r="H54">
+        <v>-0.08054968077012237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09527165743985165</v>
+        <v>0.04240164746177071</v>
       </c>
       <c r="C55">
-        <v>0.1059753474021527</v>
+        <v>-0.1306708329449037</v>
       </c>
       <c r="D55">
-        <v>0.006012088641511672</v>
+        <v>-0.0311236510187652</v>
       </c>
       <c r="E55">
-        <v>-0.01179968474388691</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00402138203683136</v>
+      </c>
+      <c r="F55">
+        <v>-0.01425479515621954</v>
+      </c>
+      <c r="G55">
+        <v>-0.005511184863756774</v>
+      </c>
+      <c r="H55">
+        <v>-0.01605896660745987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1326535911450655</v>
+        <v>0.05715213728941818</v>
       </c>
       <c r="C56">
-        <v>0.1426899554680508</v>
+        <v>-0.1883659984257145</v>
       </c>
       <c r="D56">
-        <v>0.002140137177945178</v>
+        <v>-0.03154562445722779</v>
       </c>
       <c r="E56">
-        <v>-0.01250107345898522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02993725255075338</v>
+      </c>
+      <c r="F56">
+        <v>-0.01675394581521572</v>
+      </c>
+      <c r="G56">
+        <v>-0.05454981766571136</v>
+      </c>
+      <c r="H56">
+        <v>-0.01137967156525462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01008731848345077</v>
+        <v>0.007008494848517567</v>
       </c>
       <c r="C58">
-        <v>0.01182201266599643</v>
+        <v>-0.05290737054789126</v>
       </c>
       <c r="D58">
-        <v>0.2151311853616754</v>
+        <v>0.2714551848493561</v>
       </c>
       <c r="E58">
-        <v>-0.08227816209179553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.01381316474882488</v>
+      </c>
+      <c r="F58">
+        <v>-0.1053870283708366</v>
+      </c>
+      <c r="G58">
+        <v>-0.1339075941347551</v>
+      </c>
+      <c r="H58">
+        <v>0.09039905155754777</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1799694664473333</v>
+        <v>0.2524139780714513</v>
       </c>
       <c r="C59">
-        <v>-0.1477000010100928</v>
+        <v>0.06440283281122361</v>
       </c>
       <c r="D59">
-        <v>0.04524385277863936</v>
+        <v>0.05556847748544144</v>
       </c>
       <c r="E59">
-        <v>-0.03607857050098613</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0211489379151689</v>
+      </c>
+      <c r="F59">
+        <v>-0.02401905473174877</v>
+      </c>
+      <c r="G59">
+        <v>-0.01245517431570953</v>
+      </c>
+      <c r="H59">
+        <v>0.004734982759882374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1846742997110303</v>
+        <v>0.1502326893135281</v>
       </c>
       <c r="C60">
-        <v>0.100677062949154</v>
+        <v>-0.1710011573231732</v>
       </c>
       <c r="D60">
-        <v>0.2081977355767405</v>
+        <v>0.08876339398401913</v>
       </c>
       <c r="E60">
-        <v>0.1657003459535643</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.167629973483078</v>
+      </c>
+      <c r="F60">
+        <v>0.2242011530608017</v>
+      </c>
+      <c r="G60">
+        <v>0.2262890811471312</v>
+      </c>
+      <c r="H60">
+        <v>0.2222182700580701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02510516090943677</v>
+        <v>0.01130246033866936</v>
       </c>
       <c r="C61">
-        <v>0.05313625292742138</v>
+        <v>-0.0733302726715979</v>
       </c>
       <c r="D61">
-        <v>0.09897415913131315</v>
+        <v>0.07898668332435861</v>
       </c>
       <c r="E61">
-        <v>0.003532452499278881</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03676016257726315</v>
+      </c>
+      <c r="F61">
+        <v>0.01220147623424852</v>
+      </c>
+      <c r="G61">
+        <v>0.02880246932223797</v>
+      </c>
+      <c r="H61">
+        <v>-0.08767453572566421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006584437889098009</v>
+        <v>0.0083285272234952</v>
       </c>
       <c r="C63">
-        <v>0.02528650604934901</v>
+        <v>-0.03575117555391075</v>
       </c>
       <c r="D63">
-        <v>0.09342899292436627</v>
+        <v>0.06766462488250313</v>
       </c>
       <c r="E63">
-        <v>-0.01653838458249129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05596324531381125</v>
+      </c>
+      <c r="F63">
+        <v>-0.02815341633374573</v>
+      </c>
+      <c r="G63">
+        <v>-0.007626554835903305</v>
+      </c>
+      <c r="H63">
+        <v>-0.065210787555204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05621763296147464</v>
+        <v>0.01730243565049792</v>
       </c>
       <c r="C64">
-        <v>0.08298428737923128</v>
+        <v>-0.1066142682934746</v>
       </c>
       <c r="D64">
-        <v>0.0373346581633402</v>
+        <v>0.02146314671744994</v>
       </c>
       <c r="E64">
-        <v>-0.01709421911540309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02864581087620675</v>
+      </c>
+      <c r="F64">
+        <v>-0.02176991764085636</v>
+      </c>
+      <c r="G64">
+        <v>0.04872699047157654</v>
+      </c>
+      <c r="H64">
+        <v>-0.09000386360763366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0248881986940112</v>
+        <v>0.02153535806085813</v>
       </c>
       <c r="C65">
-        <v>0.01556541075644584</v>
+        <v>-0.04279427143088154</v>
       </c>
       <c r="D65">
-        <v>0.1154503869222877</v>
+        <v>0.1144599301159235</v>
       </c>
       <c r="E65">
-        <v>-0.006497677414488171</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04254445432015531</v>
+      </c>
+      <c r="F65">
+        <v>0.005284754493780746</v>
+      </c>
+      <c r="G65">
+        <v>0.02441683077976036</v>
+      </c>
+      <c r="H65">
+        <v>-0.02458130289152841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01891893932611237</v>
+        <v>1.038489129150035e-05</v>
       </c>
       <c r="C66">
-        <v>0.06430103540966227</v>
+        <v>-0.09380562561151935</v>
       </c>
       <c r="D66">
-        <v>0.1192715412965228</v>
+        <v>0.1218212755017926</v>
       </c>
       <c r="E66">
-        <v>0.01408926373160375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04154483249091265</v>
+      </c>
+      <c r="F66">
+        <v>0.008660515684431108</v>
+      </c>
+      <c r="G66">
+        <v>-0.01226176401850401</v>
+      </c>
+      <c r="H66">
+        <v>-0.05936521044261144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02398029207815481</v>
+        <v>0.02398216450222147</v>
       </c>
       <c r="C67">
-        <v>0.01927337813065174</v>
+        <v>-0.03122290252981175</v>
       </c>
       <c r="D67">
-        <v>0.04398120780675094</v>
+        <v>0.03850911388581268</v>
       </c>
       <c r="E67">
-        <v>0.01353302638231029</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.009033339557383778</v>
+      </c>
+      <c r="F67">
+        <v>0.02660334724969025</v>
+      </c>
+      <c r="G67">
+        <v>-0.007337072788070179</v>
+      </c>
+      <c r="H67">
+        <v>-0.06551643347579214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2040783395492491</v>
+        <v>0.2733692533838695</v>
       </c>
       <c r="C68">
-        <v>-0.1565023824617859</v>
+        <v>0.06916266803229462</v>
       </c>
       <c r="D68">
-        <v>0.03069013710832658</v>
+        <v>0.02326185744894884</v>
       </c>
       <c r="E68">
-        <v>-0.006245213600673122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.00567311370056306</v>
+      </c>
+      <c r="F68">
+        <v>-0.02458560056136817</v>
+      </c>
+      <c r="G68">
+        <v>-0.0703354863179588</v>
+      </c>
+      <c r="H68">
+        <v>0.04810672398751195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05649573761831854</v>
+        <v>0.01959420005256437</v>
       </c>
       <c r="C69">
-        <v>0.1146307864864822</v>
+        <v>-0.1184519513246199</v>
       </c>
       <c r="D69">
-        <v>0.08125202769651713</v>
+        <v>0.0338236231231836</v>
       </c>
       <c r="E69">
-        <v>-0.01814931573776055</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.009197386884234183</v>
+      </c>
+      <c r="F69">
+        <v>0.005816727442404412</v>
+      </c>
+      <c r="G69">
+        <v>0.02465009971141903</v>
+      </c>
+      <c r="H69">
+        <v>-0.042372278364641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2137637070086195</v>
+        <v>0.2749739576884932</v>
       </c>
       <c r="C71">
-        <v>-0.1799330347213441</v>
+        <v>0.08226282221526755</v>
       </c>
       <c r="D71">
-        <v>0.02058197012828395</v>
+        <v>0.01541486003553857</v>
       </c>
       <c r="E71">
-        <v>-0.01169994090964578</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.001281398342713291</v>
+      </c>
+      <c r="F71">
+        <v>-0.01965408137503752</v>
+      </c>
+      <c r="G71">
+        <v>-0.03259202536354288</v>
+      </c>
+      <c r="H71">
+        <v>-0.02377269697600895</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1042160976353985</v>
+        <v>0.05635835011332045</v>
       </c>
       <c r="C72">
-        <v>0.07579468768558334</v>
+        <v>-0.1249288268486271</v>
       </c>
       <c r="D72">
-        <v>0.1104469868292109</v>
+        <v>0.05787816603496613</v>
       </c>
       <c r="E72">
-        <v>0.04746630212681062</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07033144985182284</v>
+      </c>
+      <c r="F72">
+        <v>0.0280874882313208</v>
+      </c>
+      <c r="G72">
+        <v>0.03722128409973288</v>
+      </c>
+      <c r="H72">
+        <v>-0.05197099220126973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.171199429730932</v>
+        <v>0.1420773246430436</v>
       </c>
       <c r="C73">
-        <v>0.06461303940597921</v>
+        <v>-0.1442498429493725</v>
       </c>
       <c r="D73">
-        <v>0.2785708446999092</v>
+        <v>0.1007362380092759</v>
       </c>
       <c r="E73">
-        <v>0.2507751915667706</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2944975355069621</v>
+      </c>
+      <c r="F73">
+        <v>0.3169428269943751</v>
+      </c>
+      <c r="G73">
+        <v>0.4087285952424087</v>
+      </c>
+      <c r="H73">
+        <v>0.1600816885860897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1070234758333173</v>
+        <v>0.05019042564572731</v>
       </c>
       <c r="C74">
-        <v>0.1155191335047891</v>
+        <v>-0.146054659600027</v>
       </c>
       <c r="D74">
-        <v>-0.01678568929855707</v>
+        <v>-0.04049401918895359</v>
       </c>
       <c r="E74">
-        <v>-0.03984297176944892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01040437841125759</v>
+      </c>
+      <c r="F74">
+        <v>-0.03730639587816367</v>
+      </c>
+      <c r="G74">
+        <v>0.007533076347982212</v>
+      </c>
+      <c r="H74">
+        <v>0.01078991428110458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2336486212238345</v>
+        <v>0.1096703439233842</v>
       </c>
       <c r="C75">
-        <v>0.1998915855564692</v>
+        <v>-0.2687760310724255</v>
       </c>
       <c r="D75">
-        <v>-0.1012878657770186</v>
+        <v>-0.1363811878020803</v>
       </c>
       <c r="E75">
-        <v>0.0273830487829439</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08735388304127434</v>
+      </c>
+      <c r="F75">
+        <v>0.0310597475164499</v>
+      </c>
+      <c r="G75">
+        <v>-0.09063854776780166</v>
+      </c>
+      <c r="H75">
+        <v>-0.01971708010848898</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1392398640290665</v>
+        <v>0.06245736958574627</v>
       </c>
       <c r="C76">
-        <v>0.1390448140084128</v>
+        <v>-0.1821674727831572</v>
       </c>
       <c r="D76">
-        <v>0.01684233552877502</v>
+        <v>-0.03628332044730086</v>
       </c>
       <c r="E76">
-        <v>-0.01212792063845053</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02151345474349991</v>
+      </c>
+      <c r="F76">
+        <v>-0.004232453671812006</v>
+      </c>
+      <c r="G76">
+        <v>-0.03376596523848279</v>
+      </c>
+      <c r="H76">
+        <v>-0.03618400694221684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.02173429007024646</v>
+        <v>0.002116291619114691</v>
       </c>
       <c r="C77">
-        <v>0.06773294546064607</v>
+        <v>-0.1072129336694993</v>
       </c>
       <c r="D77">
-        <v>-0.004886092633950405</v>
+        <v>0.3147066385481413</v>
       </c>
       <c r="E77">
-        <v>-0.2369460144614034</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8403355429344289</v>
+      </c>
+      <c r="F77">
+        <v>0.2286134089990765</v>
+      </c>
+      <c r="G77">
+        <v>0.2085362626619149</v>
+      </c>
+      <c r="H77">
+        <v>0.149944332090599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02536983456106491</v>
+        <v>0.01652504709674057</v>
       </c>
       <c r="C78">
-        <v>0.06809248200011431</v>
+        <v>-0.08973189415736274</v>
       </c>
       <c r="D78">
-        <v>0.1512017939699724</v>
+        <v>0.1193202983764842</v>
       </c>
       <c r="E78">
-        <v>-0.04674800982165832</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06800577594490262</v>
+      </c>
+      <c r="F78">
+        <v>-0.04303182643764804</v>
+      </c>
+      <c r="G78">
+        <v>-0.03048962259684147</v>
+      </c>
+      <c r="H78">
+        <v>-0.02437400442028674</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0955833126833992</v>
+        <v>0.0351733657405169</v>
       </c>
       <c r="C79">
-        <v>0.1755603472285904</v>
+        <v>-0.1922904161236735</v>
       </c>
       <c r="D79">
-        <v>-0.1036969825791004</v>
+        <v>-0.07234033743260419</v>
       </c>
       <c r="E79">
-        <v>-0.790797076279544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05128996697937514</v>
+      </c>
+      <c r="F79">
+        <v>-0.773550805399234</v>
+      </c>
+      <c r="G79">
+        <v>0.3935264049801674</v>
+      </c>
+      <c r="H79">
+        <v>0.3215474181426348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.004719951856276552</v>
+        <v>0.0054095826672373</v>
       </c>
       <c r="C80">
-        <v>0.04622453547228779</v>
+        <v>-0.04623585650276074</v>
       </c>
       <c r="D80">
-        <v>0.05171890866738958</v>
+        <v>0.04161987562362057</v>
       </c>
       <c r="E80">
-        <v>0.007148002914312081</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04356528625336688</v>
+      </c>
+      <c r="F80">
+        <v>-0.005574060489890596</v>
+      </c>
+      <c r="G80">
+        <v>-0.01474460277259834</v>
+      </c>
+      <c r="H80">
+        <v>-0.02842159347114605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1188148960746725</v>
+        <v>0.0438415074345534</v>
       </c>
       <c r="C81">
-        <v>0.1350021404103239</v>
+        <v>-0.1683331267576868</v>
       </c>
       <c r="D81">
-        <v>-0.06937104730121917</v>
+        <v>-0.07602327796939402</v>
       </c>
       <c r="E81">
-        <v>-0.06072031799182965</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04880242055383913</v>
+      </c>
+      <c r="F81">
+        <v>-0.06483974751796505</v>
+      </c>
+      <c r="G81">
+        <v>-0.04120199272554488</v>
+      </c>
+      <c r="H81">
+        <v>-0.08260763463298125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2511038714157064</v>
+        <v>0.09125012064693512</v>
       </c>
       <c r="C82">
-        <v>0.2992570180784324</v>
+        <v>-0.3242393035113423</v>
       </c>
       <c r="D82">
-        <v>-0.1974342068876943</v>
+        <v>-0.2358888073346483</v>
       </c>
       <c r="E82">
-        <v>0.1413109338760503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05576032698177902</v>
+      </c>
+      <c r="F82">
+        <v>0.1051773100940362</v>
+      </c>
+      <c r="G82">
+        <v>-0.08952938579384574</v>
+      </c>
+      <c r="H82">
+        <v>-0.1180090591990366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.007577241923111392</v>
+        <v>-0.01313279565216176</v>
       </c>
       <c r="C83">
-        <v>0.05070498694304826</v>
+        <v>-0.02481342285098241</v>
       </c>
       <c r="D83">
-        <v>0.0008322764260847414</v>
+        <v>0.02630666409752251</v>
       </c>
       <c r="E83">
-        <v>-0.0613307932174957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07965557078617549</v>
+      </c>
+      <c r="F83">
+        <v>-0.07145800447688959</v>
+      </c>
+      <c r="G83">
+        <v>-0.03562691081850123</v>
+      </c>
+      <c r="H83">
+        <v>-0.09454819683491823</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0004533026643766674</v>
+        <v>-0.0003154651475817204</v>
       </c>
       <c r="C84">
-        <v>-0.001562785836204076</v>
+        <v>-0.01906216852386651</v>
       </c>
       <c r="D84">
-        <v>0.004888308223421616</v>
+        <v>0.04736578950240774</v>
       </c>
       <c r="E84">
-        <v>-0.0001933572365921002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.002749931338178888</v>
+      </c>
+      <c r="F84">
+        <v>-0.027864704285125</v>
+      </c>
+      <c r="G84">
+        <v>-0.05014645910798753</v>
+      </c>
+      <c r="H84">
+        <v>-0.01484154472523224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1410240928885237</v>
+        <v>0.05848096829297209</v>
       </c>
       <c r="C85">
-        <v>0.1390363180999371</v>
+        <v>-0.1835827899510461</v>
       </c>
       <c r="D85">
-        <v>-0.03717264421085712</v>
+        <v>-0.09010043148770303</v>
       </c>
       <c r="E85">
-        <v>-0.0247859062240473</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002796805485937833</v>
+      </c>
+      <c r="F85">
+        <v>-0.07516296694171466</v>
+      </c>
+      <c r="G85">
+        <v>-0.01898876197774127</v>
+      </c>
+      <c r="H85">
+        <v>-0.0024311719209893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01301756764343388</v>
+        <v>0.01375212475855779</v>
       </c>
       <c r="C86">
-        <v>0.0151914093883954</v>
+        <v>-0.03264776968835494</v>
       </c>
       <c r="D86">
-        <v>0.07821462081815057</v>
+        <v>0.09987781742974983</v>
       </c>
       <c r="E86">
-        <v>-0.05164668644645543</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02304973354344174</v>
+      </c>
+      <c r="F86">
+        <v>0.001360506272881633</v>
+      </c>
+      <c r="G86">
+        <v>0.01492621770070611</v>
+      </c>
+      <c r="H86">
+        <v>-0.02368627269742914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01893627459795962</v>
+        <v>0.01195523759619069</v>
       </c>
       <c r="C87">
-        <v>0.02441773947325035</v>
+        <v>-0.05753371268150873</v>
       </c>
       <c r="D87">
-        <v>0.1343819347743206</v>
+        <v>0.1452201433782678</v>
       </c>
       <c r="E87">
-        <v>-0.05552452112566279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01260698068413824</v>
+      </c>
+      <c r="F87">
+        <v>-0.04225423585895049</v>
+      </c>
+      <c r="G87">
+        <v>-0.05357786609980257</v>
+      </c>
+      <c r="H87">
+        <v>-0.03177252754506363</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05293136674358026</v>
+        <v>0.0347414854822545</v>
       </c>
       <c r="C88">
-        <v>0.04492129232057492</v>
+        <v>-0.06656035142173106</v>
       </c>
       <c r="D88">
-        <v>0.02742356411293442</v>
+        <v>0.01242197232475675</v>
       </c>
       <c r="E88">
-        <v>-0.03007490167760613</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02680643456256854</v>
+      </c>
+      <c r="F88">
+        <v>-0.01889433739619166</v>
+      </c>
+      <c r="G88">
+        <v>0.01149046937946623</v>
+      </c>
+      <c r="H88">
+        <v>-0.01741801900204307</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3236819356399773</v>
+        <v>0.4067098320703604</v>
       </c>
       <c r="C89">
-        <v>-0.3278380441420522</v>
+        <v>0.156028386339246</v>
       </c>
       <c r="D89">
-        <v>0.009002095360158771</v>
+        <v>0.02738526875566272</v>
       </c>
       <c r="E89">
-        <v>-0.1056976340696278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0551211255508563</v>
+      </c>
+      <c r="F89">
+        <v>-0.07073333862602565</v>
+      </c>
+      <c r="G89">
+        <v>-0.04437844259863637</v>
+      </c>
+      <c r="H89">
+        <v>-0.09891279705039492</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2549959133927448</v>
+        <v>0.3189813201798503</v>
       </c>
       <c r="C90">
-        <v>-0.2384886312327577</v>
+        <v>0.1041156057127045</v>
       </c>
       <c r="D90">
-        <v>0.04077885732252225</v>
+        <v>0.03547833101268016</v>
       </c>
       <c r="E90">
-        <v>0.008365895494050264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01135680035325319</v>
+      </c>
+      <c r="F90">
+        <v>0.008080665892396949</v>
+      </c>
+      <c r="G90">
+        <v>-0.05762623895098332</v>
+      </c>
+      <c r="H90">
+        <v>-0.001920538425705276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1552108128582683</v>
+        <v>0.06817439074113806</v>
       </c>
       <c r="C91">
-        <v>0.188630536901579</v>
+        <v>-0.209793742084994</v>
       </c>
       <c r="D91">
-        <v>-0.09930988328162579</v>
+        <v>-0.1113174682633713</v>
       </c>
       <c r="E91">
-        <v>-0.08981160410009982</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06048747981549683</v>
+      </c>
+      <c r="F91">
+        <v>-0.0725502969115025</v>
+      </c>
+      <c r="G91">
+        <v>-0.005004230696395994</v>
+      </c>
+      <c r="H91">
+        <v>-0.004031851952442276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2413135335017576</v>
+        <v>0.337636733733953</v>
       </c>
       <c r="C92">
-        <v>-0.2605477112894238</v>
+        <v>0.1424196537423378</v>
       </c>
       <c r="D92">
-        <v>-0.05332801315483422</v>
+        <v>0.001413531206361784</v>
       </c>
       <c r="E92">
-        <v>-0.04823989572971448</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06468331240070824</v>
+      </c>
+      <c r="F92">
+        <v>-0.02962760414979113</v>
+      </c>
+      <c r="G92">
+        <v>-0.02777246409894879</v>
+      </c>
+      <c r="H92">
+        <v>-0.01748246711117347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.279885570801171</v>
+        <v>0.335011560785835</v>
       </c>
       <c r="C93">
-        <v>-0.2503476522588735</v>
+        <v>0.1163843776913535</v>
       </c>
       <c r="D93">
-        <v>0.01548741063102673</v>
+        <v>-0.01897623541460161</v>
       </c>
       <c r="E93">
-        <v>-0.001051500959370837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02489757286504111</v>
+      </c>
+      <c r="F93">
+        <v>-0.008666201955036578</v>
+      </c>
+      <c r="G93">
+        <v>0.01876444246234757</v>
+      </c>
+      <c r="H93">
+        <v>0.00241700742454862</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2955266508360394</v>
+        <v>0.128061676408714</v>
       </c>
       <c r="C94">
-        <v>0.2749893916529668</v>
+        <v>-0.35264977824928</v>
       </c>
       <c r="D94">
-        <v>-0.3505283847931114</v>
+        <v>-0.3629721888492828</v>
       </c>
       <c r="E94">
-        <v>0.2165616224196934</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06327173650693199</v>
+      </c>
+      <c r="F94">
+        <v>0.1067379938311698</v>
+      </c>
+      <c r="G94">
+        <v>-0.3248145272172384</v>
+      </c>
+      <c r="H94">
+        <v>0.05081823214433481</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01506811285148478</v>
+        <v>0.01868086454788946</v>
       </c>
       <c r="C95">
-        <v>0.03718911327934101</v>
+        <v>-0.06349125929694843</v>
       </c>
       <c r="D95">
-        <v>0.02146007853407947</v>
+        <v>0.1134054177437882</v>
       </c>
       <c r="E95">
-        <v>-0.09750454264898557</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1530112819377469</v>
+      </c>
+      <c r="F95">
+        <v>0.01377226213932675</v>
+      </c>
+      <c r="G95">
+        <v>0.08364966899924277</v>
+      </c>
+      <c r="H95">
+        <v>-0.3459383256771749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001350679652323077</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0004687869373414255</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006384335450878056</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003408954231827796</v>
+      </c>
+      <c r="F97">
+        <v>-0.0001596181550951212</v>
+      </c>
+      <c r="G97">
+        <v>-0.0001037596112767674</v>
+      </c>
+      <c r="H97">
+        <v>-0.003112021461209825</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1430928825435616</v>
+        <v>0.1148626203693208</v>
       </c>
       <c r="C98">
-        <v>0.08610858183228069</v>
+        <v>-0.1501078354833548</v>
       </c>
       <c r="D98">
-        <v>0.1582514086650504</v>
+        <v>0.06710809760304533</v>
       </c>
       <c r="E98">
-        <v>0.1968585283532648</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2034553017135414</v>
+      </c>
+      <c r="F98">
+        <v>0.2461759638637129</v>
+      </c>
+      <c r="G98">
+        <v>0.2798965743085439</v>
+      </c>
+      <c r="H98">
+        <v>0.1766485004466166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0008930495364430498</v>
+        <v>0.001210448614242523</v>
       </c>
       <c r="C101">
-        <v>0.01981350494696685</v>
+        <v>-0.03501499382377361</v>
       </c>
       <c r="D101">
-        <v>0.09475636628093816</v>
+        <v>0.1034844442140716</v>
       </c>
       <c r="E101">
-        <v>-0.01874653382663941</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05587988301713463</v>
+      </c>
+      <c r="F101">
+        <v>-0.04119340674660344</v>
+      </c>
+      <c r="G101">
+        <v>0.002200644465976209</v>
+      </c>
+      <c r="H101">
+        <v>-0.1321909051669178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1058171910058374</v>
+        <v>0.02885683430333314</v>
       </c>
       <c r="C102">
-        <v>0.158704831001698</v>
+        <v>-0.1501310271388998</v>
       </c>
       <c r="D102">
-        <v>-0.06060941188153604</v>
+        <v>-0.09532677982662868</v>
       </c>
       <c r="E102">
-        <v>0.05070226013722588</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0340548691398747</v>
+      </c>
+      <c r="F102">
+        <v>0.0627508676095541</v>
+      </c>
+      <c r="G102">
+        <v>0.009518323872192177</v>
+      </c>
+      <c r="H102">
+        <v>-0.05233286627759615</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
